--- a/Data/2022-08-08_Behavior_Assay_effectscore.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_effectscore.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,22 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Moving [s]|Accomodation</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moving [s]|Accomodation</t>
+          <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Velocity [mm/s]|Light</t>
+          <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Velocity [mm/s]|Dark</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -479,393 +458,343 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004690474588100176</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002599246427417095</v>
+        <v>-0.0665337401844817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6190381902030483</v>
+        <v>-0.0004155358782686025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00266230547139222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.4590999043445722</v>
+        <v>0.003682047175680078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.002599246427417095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6485603091377177</v>
+        <v>0.6190381902030483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05224382064174461</v>
+        <v>0.00266230547139222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02702721519858158</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0004622769820401413</v>
+        <v>-0.4590999043445722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6485603091377177</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09534350947196457</v>
+        <v>0.05224382064174461</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5713008096078158</v>
+        <v>0.02702721519858158</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4514850791634177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.08841117647485228</v>
+        <v>-0.0004622769820401413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.09534350947196457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007180084739652682</v>
+        <v>-0.5713008096078158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4006256194777991</v>
+        <v>-0.4514850791634177</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.600012317673734e-05</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.09360179129839326</v>
+        <v>0.08841117647485228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0007180084739652682</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02511507357072094</v>
+        <v>0.4006256194777991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005336269673092568</v>
+        <v>-2.600012317673734e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02119723302170318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.000269749120999223</v>
+        <v>-0.09360179129839326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.02511507357072094</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0002146501423613786</v>
+        <v>0.0005336269673092568</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.12828636411443e-05</v>
+        <v>-0.02119723302170318</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01649562233256314</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000869462344395647</v>
+        <v>-0.000269749120999223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0002146501423613786</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.407539237409666</v>
+        <v>-1.12828636411443e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.063033103685329</v>
+        <v>-0.01649562233256314</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.394571283418013</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.552565111538546</v>
+        <v>0.000869462344395647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.407539237409666</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04014257325652738</v>
+        <v>-5.063033103685329</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.016151448232665</v>
+        <v>-2.394571283418013</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1589347739926616</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.474643448688756</v>
+        <v>3.552565111538546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.04014257325652738</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04937158356428422</v>
+        <v>-1.016151448232665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001805779842397879</v>
+        <v>-0.1589347739926616</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01882170188564664</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.009148284860716852</v>
+        <v>0.474643448688756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04937158356428422</v>
       </c>
       <c r="C11" t="n">
-        <v>1.283943330306465</v>
+        <v>0.0001805779842397879</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5211127094232282</v>
+        <v>-0.01882170188564664</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.116482021383292e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2050966608030914</v>
+        <v>0.009148284860716852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.283943330306465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8281206250655634</v>
+        <v>-0.5211127094232282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1453375207886302</v>
+        <v>-4.116482021383292e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2309446956059623</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.01050577603842847</v>
+        <v>0.2050966608030914</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8281206250655634</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.797356422549698</v>
+        <v>0.1453375207886302</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1972649370548122</v>
+        <v>0.2309446956059623</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4602317433762005</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1006627846735373</v>
+        <v>-0.01050577603842847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.5</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.797356422549698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1116889426127083</v>
+        <v>-0.1972649370548122</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.060644024170077</v>
+        <v>-0.4602317433762005</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2929268487434603</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.261180983309327</v>
+        <v>0.1006627846735373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1116889426127083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4800163938868077</v>
+        <v>-1.060644024170077</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001332466787325624</v>
+        <v>-0.2929268487434603</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01182424341402746</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.004082425311744102</v>
+        <v>1.261180983309327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4800163938868077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05440139619029755</v>
+        <v>0.001332466787325624</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.006947301378922879</v>
+        <v>0.01182424341402746</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.01312367602666625</v>
+        <v>0.004082425311744102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05440139619029755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01850116034700639</v>
+        <v>-0.006947301378922879</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1406470335334792</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.911326369420947e-06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.06881939009378539</v>
+        <v>0.01312367602666625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01850116034700639</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1406470335334792</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-9.911326369420947e-06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.06881939009378539</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-5.395729997446673</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.004539773955949687</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-11.86962335185485</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-14.43321147007991</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>0.5</v>
+      <c r="B19" t="n">
+        <v>-5.085047770265757</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0008028230813932667</v>
+        <v>-0.0417605096441586</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.600888185772532</v>
+        <v>-9.667885259076881</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4875161429249484</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.005227740985635727</v>
+        <v>-14.95110414797919</v>
       </c>
     </row>
     <row r="20">
@@ -874,19 +803,16 @@
           <t>Atazanavir_1B10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0.0002169938032884099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002169938032884099</v>
+        <v>-0.03762437829257603</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03762437829257603</v>
+        <v>-0.0009956206800413091</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0009956206800413091</v>
-      </c>
-      <c r="F20" t="n">
         <v>0.2435100095333183</v>
       </c>
     </row>
@@ -896,19 +822,16 @@
           <t>Baricitinib_2C09</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>0.1004243431346463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1004243431346463</v>
+        <v>-0.002452091190011538</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.002452091190011538</v>
+        <v>0.001022816652139999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001022816652139999</v>
-      </c>
-      <c r="F21" t="n">
         <v>0.001456123398928233</v>
       </c>
     </row>
@@ -918,19 +841,16 @@
           <t>Bemcentinib_1A04</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>-0.01553847493557127</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01553847493557127</v>
+        <v>-0.3294190350114074</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3294190350114074</v>
+        <v>0.002036015421398324</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002036015421398324</v>
-      </c>
-      <c r="F22" t="n">
         <v>0.7779406152025671</v>
       </c>
     </row>
@@ -940,19 +860,16 @@
           <t>Benztropine_1G02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>-0.2104211940268566</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2104211940268566</v>
+        <v>0.00119848859858463</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00119848859858463</v>
+        <v>-0.04916676192222328</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.04916676192222328</v>
-      </c>
-      <c r="F23" t="n">
         <v>-0.002608423159799576</v>
       </c>
     </row>
@@ -962,19 +879,16 @@
           <t>Berbamine_2A09</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>-0.004504277005416946</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.004504277005416946</v>
+        <v>0.4849951402466438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4849951402466438</v>
+        <v>-0.1054681442255718</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1054681442255718</v>
-      </c>
-      <c r="F24" t="n">
         <v>-0.2886941250488063</v>
       </c>
     </row>
@@ -984,19 +898,16 @@
           <t>Boceprevir_2G09</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>-0.000288692396317539</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.000288692396317539</v>
+        <v>0.002842137638994401</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002842137638994401</v>
+        <v>-0.005962373479978617</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.005962373479978617</v>
-      </c>
-      <c r="F25" t="n">
         <v>-5.795983200169935e-05</v>
       </c>
     </row>
@@ -1006,19 +917,16 @@
           <t>Bortezomib_2G06</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.0006609181539484715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006609181539484715</v>
+        <v>0.07868034679751357</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07868034679751357</v>
+        <v>-0.05623235758511815</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.05623235758511815</v>
-      </c>
-      <c r="F26" t="n">
         <v>-0.01229477513539569</v>
       </c>
     </row>
@@ -1028,19 +936,16 @@
           <t>Brequinar_2H03</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>-0.0003014862348338625</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0003014862348338625</v>
+        <v>-0.313727675884061</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.313727675884061</v>
+        <v>-0.1648420449405612</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1648420449405612</v>
-      </c>
-      <c r="F27" t="n">
         <v>0.1975419259568317</v>
       </c>
     </row>
@@ -1050,19 +955,16 @@
           <t>Cabozantinib_2G04</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>-6.643090122600307</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.643090122600307</v>
+        <v>-3.099799891329433</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.099799891329433</v>
+        <v>-8.72937729586226</v>
       </c>
       <c r="E28" t="n">
-        <v>-8.72937729586226</v>
-      </c>
-      <c r="F28" t="n">
         <v>-0.0260703493442025</v>
       </c>
     </row>
@@ -1072,19 +974,16 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0.5474608825483895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5474608825483895</v>
+        <v>-0.9368247638742752</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9368247638742752</v>
+        <v>0.001979395414481537</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001979395414481537</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.6950442806245442</v>
       </c>
     </row>
@@ -1094,19 +993,16 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>0.1175190067870064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1175190067870064</v>
+        <v>-0.0690673999289742</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0690673999289742</v>
+        <v>-0.000286273244412868</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.000286273244412868</v>
-      </c>
-      <c r="F30" t="n">
         <v>0.07171180878319899</v>
       </c>
     </row>
@@ -1116,19 +1012,16 @@
           <t>Celecoxib_2G03</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>-0.003225924738798775</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.003225924738798775</v>
+        <v>3.302863253790162</v>
       </c>
       <c r="D31" t="n">
-        <v>3.302863253790162</v>
+        <v>-0.03725316047619857</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03725316047619857</v>
-      </c>
-      <c r="F31" t="n">
         <v>-0.07426001300916565</v>
       </c>
     </row>
@@ -1138,19 +1031,16 @@
           <t>Chlormidazole_2C05</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>9.76588448197597e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>9.76588448197597e-05</v>
+        <v>-0.1615091763021784</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1615091763021784</v>
+        <v>-0.006299534315590136</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.006299534315590136</v>
-      </c>
-      <c r="F32" t="n">
         <v>0.004128938250045606</v>
       </c>
     </row>
@@ -1160,19 +1050,16 @@
           <t>Chlorothiazide_2H08</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.0009467246545573054</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0009467246545573054</v>
+        <v>0.002983586164121648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002983586164121648</v>
+        <v>2.53037439762164e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>2.53037439762164e-05</v>
-      </c>
-      <c r="F33" t="n">
         <v>-0.0004924339690743095</v>
       </c>
     </row>
@@ -1182,19 +1069,16 @@
           <t>Chlorpromazine_1B02</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>-0.2588660295310281</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2588660295310281</v>
+        <v>0.01287274757043416</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01287274757043416</v>
+        <v>1.107710929101181e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>1.107710929101181e-05</v>
-      </c>
-      <c r="F34" t="n">
         <v>-1.776657540626113e-05</v>
       </c>
     </row>
@@ -1204,19 +1088,16 @@
           <t>Ciclesonide_1A08</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>0.1095408084723742</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1095408084723742</v>
+        <v>-0.2356485946685662</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2356485946685662</v>
+        <v>0.06463219568646514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06463219568646514</v>
-      </c>
-      <c r="F35" t="n">
         <v>0.1308459687273837</v>
       </c>
     </row>
@@ -1226,19 +1107,16 @@
           <t>Clemastine_2D07</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>-0.003392357482613023</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.003392357482613023</v>
+        <v>-0.003012026380928071</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.003012026380928071</v>
+        <v>-0.005832827384627944</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.005832827384627944</v>
-      </c>
-      <c r="F36" t="n">
         <v>0.0007765395869362813</v>
       </c>
     </row>
@@ -1248,19 +1126,16 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>-0.03972932235547869</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.03972932235547869</v>
+        <v>-2.731385499662692</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.731385499662692</v>
+        <v>-0.3335689646629157</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.3335689646629157</v>
-      </c>
-      <c r="F37" t="n">
         <v>1.456159111636248</v>
       </c>
     </row>
@@ -1270,19 +1145,16 @@
           <t>Cloperastine_2D06</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>-0.5708974578476592</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.5708974578476592</v>
+        <v>-0.1472149349791687</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1472149349791687</v>
+        <v>-0.04437666256911585</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.04437666256911585</v>
-      </c>
-      <c r="F38" t="n">
         <v>0.007828749772813918</v>
       </c>
     </row>
@@ -1292,8 +1164,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1304,9 +1176,6 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1314,19 +1183,16 @@
           <t>Cycloheximide_2D11</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
+      <c r="B40" t="n">
+        <v>-0.2133483899922282</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2133483899922282</v>
+        <v>-3.094324938585395e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.094324938585395e-05</v>
+        <v>-0.0008077929251964327</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0008077929251964327</v>
-      </c>
-      <c r="F40" t="n">
         <v>0.0003272948364564662</v>
       </c>
     </row>
@@ -1336,19 +1202,16 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+      <c r="B41" t="n">
+        <v>-0.004655848957907655</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.004655848957907655</v>
+        <v>-0.06586330962430893</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.06586330962430893</v>
+        <v>-0.0002818262577423354</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0002818262577423354</v>
-      </c>
-      <c r="F41" t="n">
         <v>0.009186717534541299</v>
       </c>
     </row>
@@ -1358,19 +1221,16 @@
           <t>Dabrafenib_2B08</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+      <c r="B42" t="n">
+        <v>-0.6720353226680181</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6720353226680181</v>
+        <v>0.1019254942604043</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1019254942604043</v>
+        <v>-0.001622185123166451</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.001622185123166451</v>
-      </c>
-      <c r="F42" t="n">
         <v>-0.06341485156265322</v>
       </c>
     </row>
@@ -1380,19 +1240,16 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+      <c r="B43" t="n">
+        <v>0.001533687487795144</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001533687487795144</v>
+        <v>-6.702540941139822e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.702540941139822e-05</v>
+        <v>0.005793114010395947</v>
       </c>
       <c r="E43" t="n">
-        <v>0.005793114010395947</v>
-      </c>
-      <c r="F43" t="n">
         <v>0.066087284666196</v>
       </c>
     </row>
@@ -1402,19 +1259,16 @@
           <t>Danusertib_2F04</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+      <c r="B44" t="n">
+        <v>0.0001738520500210863</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001738520500210863</v>
+        <v>0.0304138860838197</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0304138860838197</v>
+        <v>-0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F44" t="n">
         <v>-0.01205860657977118</v>
       </c>
     </row>
@@ -1424,19 +1278,16 @@
           <t>Dapivirine_2B09</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+      <c r="B45" t="n">
+        <v>-4.306924790676354</v>
       </c>
       <c r="C45" t="n">
-        <v>-4.306924790676354</v>
+        <v>0.0001009536692379807</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001009536692379807</v>
+        <v>-0.08576829058843213</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.08576829058843213</v>
-      </c>
-      <c r="F45" t="n">
         <v>-2.099247421021391e-05</v>
       </c>
     </row>
@@ -1446,19 +1297,16 @@
           <t>Darifenacin_2F08</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>0.07486633965419305</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07486633965419305</v>
+        <v>-0.001446189542876974</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001446189542876974</v>
+        <v>-0.000213619668374308</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.000213619668374308</v>
-      </c>
-      <c r="F46" t="n">
         <v>0.003545603751918818</v>
       </c>
     </row>
@@ -1468,19 +1316,16 @@
           <t>Darunavir_2H02</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+      <c r="B47" t="n">
+        <v>0.00123687837240682</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00123687837240682</v>
+        <v>-0.1259345769407388</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1259345769407388</v>
+        <v>-0.03967420348080247</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.03967420348080247</v>
-      </c>
-      <c r="F47" t="n">
         <v>0.04134820340812681</v>
       </c>
     </row>
@@ -1490,19 +1335,16 @@
           <t>Delanzomib_2H04</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+      <c r="B48" t="n">
+        <v>0.9145467838452591</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9145467838452591</v>
+        <v>0.09439739935818775</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09439739935818775</v>
+        <v>0.4130957852066454</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4130957852066454</v>
-      </c>
-      <c r="F48" t="n">
         <v>-0.0003975745555134343</v>
       </c>
     </row>
@@ -1512,19 +1354,16 @@
           <t>Delavirdine_2H05</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+      <c r="B49" t="n">
+        <v>-0.1987567104419339</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1987567104419339</v>
+        <v>-9.392396225008533e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.392396225008533e-05</v>
+        <v>-0.1020343639573307</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1020343639573307</v>
-      </c>
-      <c r="F49" t="n">
         <v>-0.001653586900890442</v>
       </c>
     </row>
@@ -1534,19 +1373,16 @@
           <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+      <c r="B50" t="n">
+        <v>0.04023591530604558</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04023591530604558</v>
+        <v>0.001104423394412611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001104423394412611</v>
+        <v>0.03992546137545055</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03992546137545055</v>
-      </c>
-      <c r="F50" t="n">
         <v>-0.001067529983518004</v>
       </c>
     </row>
@@ -1556,19 +1392,16 @@
           <t>Digitoxin_2C04</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
+      <c r="B51" t="n">
+        <v>-1.6138203543464</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.6138203543464</v>
+        <v>-1.66471004381334</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.66471004381334</v>
+        <v>-2.176203160099548</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.176203160099548</v>
-      </c>
-      <c r="F51" t="n">
         <v>0.01689492619091855</v>
       </c>
     </row>
@@ -1578,19 +1411,16 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+      <c r="B52" t="n">
+        <v>-0.002101859474760951</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.002101859474760951</v>
+        <v>-1.448408609678307e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.448408609678307e-05</v>
+        <v>-2.118423623578333e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.118423623578333e-05</v>
-      </c>
-      <c r="F52" t="n">
         <v>-0.0004762193536768664</v>
       </c>
     </row>
@@ -1600,19 +1430,16 @@
           <t>Doravirine_2D10</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
+      <c r="B53" t="n">
+        <v>-0.08969678505618932</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.08969678505618932</v>
+        <v>-0.01533346537676585</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01533346537676585</v>
+        <v>-0.0001432204359528107</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0001432204359528107</v>
-      </c>
-      <c r="F53" t="n">
         <v>3.461422942310812e-05</v>
       </c>
     </row>
@@ -1622,19 +1449,16 @@
           <t>Doxorubicin_2A05</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+      <c r="B54" t="n">
+        <v>0.05593304954837457</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05593304954837457</v>
+        <v>0.0001553767372320528</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0001553767372320528</v>
+        <v>0.02473478908118978</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02473478908118978</v>
-      </c>
-      <c r="F54" t="n">
         <v>-0.000103942961195314</v>
       </c>
     </row>
@@ -1644,19 +1468,16 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>-0.0002997178704134292</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0002997178704134292</v>
+        <v>-0.1622576087684149</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1622576087684149</v>
+        <v>-1.65692385481005e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.65692385481005e-05</v>
-      </c>
-      <c r="F55" t="n">
         <v>0.02482546680049212</v>
       </c>
     </row>
@@ -1666,19 +1487,16 @@
           <t>Drotaverine_1B07</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>0.0003507397918577518</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0003507397918577518</v>
+        <v>0.003812468773502913</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003812468773502913</v>
+        <v>0.004028602865823031</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004028602865823031</v>
-      </c>
-      <c r="F56" t="n">
         <v>0.006229528015982308</v>
       </c>
     </row>
@@ -1688,19 +1506,16 @@
           <t>Dutacatib_2C07</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+      <c r="B57" t="n">
+        <v>0.2633506932446292</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2633506932446292</v>
+        <v>-0.01364729648828801</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01364729648828801</v>
+        <v>0.04727858033865017</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04727858033865017</v>
-      </c>
-      <c r="F57" t="n">
         <v>0.0001237858314496748</v>
       </c>
     </row>
@@ -1710,19 +1525,16 @@
           <t>E 52862_2D09</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+      <c r="B58" t="n">
+        <v>6.260943905255207e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>6.260943905255207e-05</v>
+        <v>-0.07192389940364133</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.07192389940364133</v>
+        <v>-0.0005662072006710359</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.0005662072006710359</v>
-      </c>
-      <c r="F58" t="n">
         <v>0.02615450509915462</v>
       </c>
     </row>
@@ -1732,19 +1544,16 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+      <c r="B59" t="n">
+        <v>1.404245593181194</v>
       </c>
       <c r="C59" t="n">
-        <v>1.404245593181194</v>
+        <v>-0.01741662374577331</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01741662374577331</v>
+        <v>0.02939336499358534</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02939336499358534</v>
-      </c>
-      <c r="F59" t="n">
         <v>0.5317333602336606</v>
       </c>
     </row>
@@ -1754,19 +1563,16 @@
           <t>Entacapone_2B05</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+      <c r="B60" t="n">
+        <v>-0.09864436847769618</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.09864436847769618</v>
+        <v>-0.002574091801361031</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.002574091801361031</v>
+        <v>-0.0006923887968262834</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.0006923887968262834</v>
-      </c>
-      <c r="F60" t="n">
         <v>0.003517553986121933</v>
       </c>
     </row>
@@ -1776,19 +1582,16 @@
           <t>Eszopiclone_2C10</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+      <c r="B61" t="n">
+        <v>0.006822846824176639</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006822846824176639</v>
+        <v>-0.005307432433795643</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.005307432433795643</v>
+        <v>0.01931163054979127</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01931163054979127</v>
-      </c>
-      <c r="F61" t="n">
         <v>0.003137047795441405</v>
       </c>
     </row>
@@ -1798,19 +1601,16 @@
           <t>Ethaverine_1A10</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+      <c r="B62" t="n">
+        <v>-0.005838571131324086</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.005838571131324086</v>
+        <v>8.753674092450531e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>8.753674092450531e-05</v>
+        <v>0.3280592932240801</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3280592932240801</v>
-      </c>
-      <c r="F62" t="n">
         <v>0.003711991934590526</v>
       </c>
     </row>
@@ -1820,19 +1620,16 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+      <c r="B63" t="n">
+        <v>-0.003019624349157478</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.003019624349157478</v>
+        <v>-0.002346926393126881</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.002346926393126881</v>
+        <v>-0.00770158811236723</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.00770158811236723</v>
-      </c>
-      <c r="F63" t="n">
         <v>-0.0009181871880653225</v>
       </c>
     </row>
@@ -1842,19 +1639,16 @@
           <t>Ferroquine_1G09</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+      <c r="B64" t="n">
+        <v>0.0002408125617294566</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0002408125617294566</v>
+        <v>0.005671164695399271</v>
       </c>
       <c r="D64" t="n">
-        <v>0.005671164695399271</v>
+        <v>0.0002212492639074487</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0002212492639074487</v>
-      </c>
-      <c r="F64" t="n">
         <v>-0.001483143290363769</v>
       </c>
     </row>
@@ -1864,19 +1658,16 @@
           <t>Fluconazole_2A11</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+      <c r="B65" t="n">
+        <v>-0.6241169359289003</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.6241169359289003</v>
+        <v>-0.00033664822866881</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.00033664822866881</v>
+        <v>-0.2805703824298737</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2805703824298737</v>
-      </c>
-      <c r="F65" t="n">
         <v>-0.0002961996362168371</v>
       </c>
     </row>
@@ -1886,19 +1677,16 @@
           <t>Fluphenazine_1H06</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+      <c r="B66" t="n">
+        <v>0.0005579419292010764</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0005579419292010764</v>
+        <v>0.1764014425804067</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1764014425804067</v>
+        <v>0.2113277934264866</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2113277934264866</v>
-      </c>
-      <c r="F66" t="n">
         <v>-0.0003471042682345491</v>
       </c>
     </row>
@@ -1908,19 +1696,16 @@
           <t>Fluspirilene_2A02</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+      <c r="B67" t="n">
+        <v>0.02254020568074159</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02254020568074159</v>
+        <v>0.1656163300755879</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1656163300755879</v>
+        <v>-0.001105163350515545</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.001105163350515545</v>
-      </c>
-      <c r="F67" t="n">
         <v>-0.002538043885924263</v>
       </c>
     </row>
@@ -1930,19 +1715,16 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0.1951788576091388</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1951788576091388</v>
+        <v>-6.554352614906782e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.554352614906782e-05</v>
-      </c>
-      <c r="F68" t="n">
         <v>0.2558465546544006</v>
       </c>
     </row>
@@ -1952,19 +1734,16 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+      <c r="B69" t="n">
+        <v>0.0002930829008576284</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002930829008576284</v>
+        <v>-0.09648738704824092</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.09648738704824092</v>
+        <v>-0.01415061154358854</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01415061154358854</v>
-      </c>
-      <c r="F69" t="n">
         <v>0.02129374973917159</v>
       </c>
     </row>
@@ -1974,19 +1753,16 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+      <c r="B70" t="n">
+        <v>-0.02316207624637632</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.02316207624637632</v>
+        <v>-0.487366192644288</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.487366192644288</v>
+        <v>-0.7529108808404787</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7529108808404787</v>
-      </c>
-      <c r="F70" t="n">
         <v>0.01482640736340329</v>
       </c>
     </row>
@@ -1996,19 +1772,16 @@
           <t>Haloperidol_1H07</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+      <c r="B71" t="n">
+        <v>-0.00563068779553065</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.00563068779553065</v>
+        <v>-0.1224315167928106</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1224315167928106</v>
+        <v>3.192221348382088e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>3.192221348382088e-05</v>
-      </c>
-      <c r="F71" t="n">
         <v>0.131294524680511</v>
       </c>
     </row>
@@ -2018,19 +1791,16 @@
           <t>Hanfangchin B_2B04</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+      <c r="B72" t="n">
+        <v>-0.6272049458508527</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.6272049458508527</v>
+        <v>-0.2245138651866104</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2245138651866104</v>
+        <v>0.01232909821292847</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01232909821292847</v>
-      </c>
-      <c r="F72" t="n">
         <v>0.5768075708973579</v>
       </c>
     </row>
@@ -2040,19 +1810,16 @@
           <t>Hydroxychloroquine_1F11</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
+      <c r="B73" t="n">
+        <v>0.0005276781118368457</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0005276781118368457</v>
+        <v>0.0015493599418482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0015493599418482</v>
+        <v>-0.01444942784036641</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01444942784036641</v>
-      </c>
-      <c r="F73" t="n">
         <v>0.001842242431799986</v>
       </c>
     </row>
@@ -2062,19 +1829,16 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+      <c r="B74" t="n">
+        <v>0.01325850052398663</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01325850052398663</v>
+        <v>-0.01916233588877735</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01916233588877735</v>
+        <v>0.008154310468167796</v>
       </c>
       <c r="E74" t="n">
-        <v>0.008154310468167796</v>
-      </c>
-      <c r="F74" t="n">
         <v>0.05559209908398018</v>
       </c>
     </row>
@@ -2084,19 +1848,16 @@
           <t>Idelalisib_2F07</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+      <c r="B75" t="n">
+        <v>0.006936877575257088</v>
       </c>
       <c r="C75" t="n">
-        <v>0.006936877575257088</v>
+        <v>-0.003278592903986282</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.003278592903986282</v>
+        <v>-0.0009427593791453945</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0009427593791453945</v>
-      </c>
-      <c r="F75" t="n">
         <v>0.000913017585495815</v>
       </c>
     </row>
@@ -2106,19 +1867,16 @@
           <t>Imatinib_1H05</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+      <c r="B76" t="n">
+        <v>-0.0003403964287798932</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.0003403964287798932</v>
+        <v>-0.002889527194943625</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.002889527194943625</v>
+        <v>0.0003725513626008627</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0003725513626008627</v>
-      </c>
-      <c r="F76" t="n">
         <v>0.02222787055230488</v>
       </c>
     </row>
@@ -2128,19 +1886,16 @@
           <t>Indinavir_2H06</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+      <c r="B77" t="n">
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-0.02475946706225054</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02475946706225054</v>
+        <v>0.0006014298225411637</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0006014298225411637</v>
-      </c>
-      <c r="F77" t="n">
         <v>9.67399262721117e-05</v>
       </c>
     </row>
@@ -2150,19 +1905,16 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+      <c r="B78" t="n">
+        <v>0.1086936162691683</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1086936162691683</v>
+        <v>0.1304902347541527</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1304902347541527</v>
+        <v>0.08151900697613525</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08151900697613525</v>
-      </c>
-      <c r="F78" t="n">
         <v>-0.01160940052489737</v>
       </c>
     </row>
@@ -2172,19 +1924,16 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+      <c r="B79" t="n">
+        <v>0.0002477472289921969</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0002477472289921969</v>
+        <v>-0.5988454974569025</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5988454974569025</v>
+        <v>-0.05622455621395158</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.05622455621395158</v>
-      </c>
-      <c r="F79" t="n">
         <v>0.03860839677460891</v>
       </c>
     </row>
@@ -2194,2021 +1943,1597 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>5</v>
+      <c r="B80" t="n">
+        <v>-0.1514513918049827</v>
       </c>
       <c r="C80" t="n">
-        <v>-9.791342321229404</v>
+        <v>4.729369701603655</v>
       </c>
       <c r="D80" t="n">
-        <v>3.008911913009149</v>
+        <v>-12.85802756539493</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.186952028671</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-9.859317625914054</v>
+        <v>-17.35768993427878</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.4898968254128392</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01143480310586771</v>
+        <v>-0.1490243393811858</v>
       </c>
       <c r="D81" t="n">
-        <v>6.112128775444641</v>
+        <v>-0.005709785898973872</v>
       </c>
       <c r="E81" t="n">
-        <v>-8.54695080454737</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-10.46056581050162</v>
+        <v>0.06492614003882489</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.1222160816201469</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.4898968254128392</v>
+        <v>-0.004058815456717825</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1490243393811858</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.005709785898973872</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.06492614003882489</v>
+        <v>0.009802160003648655</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1222160816201469</v>
+        <v>-0.2254141902612783</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.004058815456717825</v>
+        <v>-0.001403010796102699</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.009802160003648655</v>
+        <v>0.05787873775601071</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-0.04813421091302709</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.2254141902612783</v>
+        <v>-0.0128576017702022</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.001403010796102699</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.05787873775601071</v>
+        <v>0.0001747491622307134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01141059392636017</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-0.001519176796871325</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.04813421091302709</v>
+        <v>1.149182239112618e-05</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.0128576017702022</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.0001747491622307134</v>
+        <v>0.0004514244023243657</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.002477835694921832</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01141059392636017</v>
+        <v>-0.00290916041313197</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.001519176796871325</v>
+        <v>-0.01534125195069216</v>
       </c>
       <c r="E86" t="n">
-        <v>1.149182239112618e-05</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0004514244023243657</v>
+        <v>0.01010971378496753</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0005880278082216349</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.002477835694921832</v>
+        <v>-0.000317018784384286</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.00290916041313197</v>
+        <v>0.004223274600719251</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.01534125195069216</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.01010971378496753</v>
+        <v>0.002293419636853675</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-1.76677188879223</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0005880278082216349</v>
+        <v>0.0002132211189592139</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.000317018784384286</v>
+        <v>-0.0005638802231639344</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004223274600719251</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.002293419636853675</v>
+        <v>0.0007630784899981008</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.3498148597497516</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.76677188879223</v>
+        <v>0.0006701599167343122</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0002132211189592139</v>
+        <v>0.00112451553602077</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.0005638802231639344</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0007630784899981008</v>
+        <v>0.009729142694255465</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.06083466182897755</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.3498148597497516</v>
+        <v>-0.864270827034029</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0006701599167343122</v>
+        <v>-0.2262144469194743</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00112451553602077</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.009729142694255465</v>
+        <v>0.01738940172166519</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.09743322821670763</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.06083466182897755</v>
+        <v>0.004911502974861979</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.864270827034029</v>
+        <v>-0.002747077881436765</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.2262144469194743</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.01738940172166519</v>
+        <v>0.0001585039695413884</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-1.711805023019596</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.09743322821670763</v>
+        <v>-0.2361957612493742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.004911502974861979</v>
+        <v>-1.315967876769515</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.002747077881436765</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0001585039695413884</v>
+        <v>-0.03745163578140025</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.01145704766464467</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.971494530104862</v>
+        <v>1.340253169551436e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2434570066745073</v>
+        <v>-0.01351810214270498</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.728990906943951</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.02270616282918138</v>
+        <v>0.0002397013624389116</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
-        <v>0.5</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.01159167650884081</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001216500698580156</v>
+        <v>0.6713888713640414</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1357298977219279</v>
+        <v>-0.005820253588831192</v>
       </c>
       <c r="E94" t="n">
-        <v>3.702497405580712e-05</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.002441499753338868</v>
+        <v>-0.3544620797714999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.2321290114251594</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01145704766464467</v>
+        <v>2.167177359298358</v>
       </c>
       <c r="D95" t="n">
-        <v>1.340253169551436e-06</v>
+        <v>0.0671799368546513</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.01351810214270498</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.0002397013624389116</v>
+        <v>-0.1929402777373945</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.152245492698812</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01159167650884081</v>
+        <v>0.1727413332524702</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6713888713640414</v>
+        <v>0.06041282205415079</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.005820253588831192</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.3544620797714999</v>
+        <v>-0.03649415832621716</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0009999355638302793</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2936764828228583</v>
+        <v>0.0001024594444776835</v>
       </c>
       <c r="D97" t="n">
-        <v>1.841687865352923</v>
+        <v>-0.000292465203057513</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07534696755140267</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.1472505623831126</v>
+        <v>1.25574863126939e-05</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
-        <v>0.5</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.606665723171585</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.772174965127803</v>
+        <v>-0.0006703796380815097</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.247693922041466</v>
+        <v>9.610359109286196e-05</v>
       </c>
       <c r="E98" t="n">
-        <v>7.293789433001019e-06</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.1264897046103603</v>
+        <v>0.0003987559884881687</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.240207487906812e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.152245492698812</v>
+        <v>0.02862848431597277</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1727413332524702</v>
+        <v>0.1685428504159471</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06041282205415079</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.03649415832621716</v>
+        <v>0.02207921136235484</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>0.5</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3939727428033801</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0004956170509360948</v>
+        <v>-0.003125640222279725</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001080288316611697</v>
+        <v>0.2492408740694313</v>
       </c>
       <c r="E100" t="n">
-        <v>8.687327663802715e-05</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.001411908476056672</v>
+        <v>0.02121046751987704</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.2037004747855451</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0009999355638302793</v>
+        <v>-0.001756471474321983</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0001024594444776835</v>
+        <v>-0.01287601981224691</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.000292465203057513</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.25574863126939e-05</v>
+        <v>0.0001336551655988532</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
-        <v>10</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3440685624752854</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01964077885366337</v>
+        <v>0.4189257434616734</v>
       </c>
       <c r="D102" t="n">
-        <v>-0</v>
+        <v>0.2746925909694602</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0001554302918819818</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0008744656168687314</v>
+        <v>-0.01679291305251626</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
-        <v>25</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.006300241306155622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0005880307847183042</v>
+        <v>0.01068857977895049</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0003289405503729025</v>
+        <v>0.01585882573269255</v>
       </c>
       <c r="E103" t="n">
-        <v>0.006273149206566781</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3.429254456778827e-05</v>
+        <v>0.008061464981234535</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.01401069593333528</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.606665723171585</v>
+        <v>-1.517038399661768</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.0006703796380815097</v>
+        <v>-0.09722440811084651</v>
       </c>
       <c r="E104" t="n">
-        <v>9.610359109286196e-05</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.0003987559884881687</v>
+        <v>0.9644643035731826</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.003499454773355395</v>
       </c>
       <c r="C105" t="n">
-        <v>1.240207487906812e-05</v>
+        <v>0.00185486583679871</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02862848431597277</v>
+        <v>0.0004198657190117198</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1685428504159471</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.02207921136235484</v>
+        <v>-0.005448484665908569</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3939727428033801</v>
+        <v>-0.8707559879775467</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.003125640222279725</v>
+        <v>-0.09310474619972595</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2492408740694313</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.02121046751987704</v>
+        <v>0.3315669022842259</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.002019440711069333</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2037004747855451</v>
+        <v>-0.004283978411306481</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.001756471474321983</v>
+        <v>-0.0004178470545987395</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.01287601981224691</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.0001336551655988532</v>
+        <v>0.003773151571436478</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.0003041919024297576</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3440685624752854</v>
+        <v>-0.268558847280619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4189257434616734</v>
+        <v>0.05959609028441062</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2746925909694602</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.01679291305251626</v>
+        <v>0.3305190308026016</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.2710732594977948</v>
       </c>
       <c r="C109" t="n">
-        <v>0.006300241306155622</v>
+        <v>-0.01093531469355895</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01068857977895049</v>
+        <v>-0.001138912472358006</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01585882573269255</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.008061464981234535</v>
+        <v>0.01893848439849354</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>0.5</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-1.149158377792697</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.01401069593333528</v>
+        <v>-2.195257853419581</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.517038399661768</v>
+        <v>-0.1298405688563238</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.09722440811084651</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9644643035731826</v>
+        <v>0.4327321852682673</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0007762187479850588</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.003499454773355395</v>
+        <v>0.006267894934412227</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00185486583679871</v>
+        <v>0.008997834235238819</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0004198657190117198</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.005448484665908569</v>
+        <v>-0.0005551588359881488</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.3926585921024177</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>-0.198696181313287</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.8707559879775467</v>
+        <v>-0.03250563739565872</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.09310474619972595</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.3315669022842259</v>
+        <v>0.0007516263621657999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.143318154782257</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.002019440711069333</v>
+        <v>-0.06709924054194853</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.004283978411306481</v>
+        <v>-0.024664778360306</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.0004178470545987395</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.003773151571436478</v>
+        <v>0.01482566667308104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.0003041919024297576</v>
+        <v>-0.04442657039209553</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.268558847280619</v>
+        <v>-0.001347942150152542</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05959609028441062</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.3305190308026016</v>
+        <v>0.006644361032943242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.789959233472441</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2710732594977948</v>
+        <v>-0.01197567811248536</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.01093531469355895</v>
+        <v>-2.40689262367202</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.001138912472358006</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.01893848439849354</v>
+        <v>-0.0003819887538884543</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.03621917843267965</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.149158377792697</v>
+        <v>-0.0004794949840129621</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.195257853419581</v>
+        <v>0.0302614670311185</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.1298405688563238</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.4327321852682673</v>
+        <v>0.03172738745267902</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.001238287410623259</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0007762187479850588</v>
+        <v>-0.006443704627030605</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006267894934412227</v>
+        <v>-0.0002591371924219815</v>
       </c>
       <c r="E117" t="n">
-        <v>0.008997834235238819</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.0005551588359881488</v>
+        <v>0.01780573669687976</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-4.828982226664145</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3926585921024177</v>
+        <v>1.341976439484138</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.198696181313287</v>
+        <v>-10.61780609985313</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.03250563739565872</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.0007516263621657999</v>
+        <v>-12.96428040536978</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.06358364406161185</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.143318154782257</v>
+        <v>0.06579550928941059</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.06709924054194853</v>
+        <v>0.04596562870491214</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.024664778360306</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.01482566667308104</v>
+        <v>-0.01414380298797689</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.08884671641140336</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-1.282778475149612</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.04442657039209553</v>
+        <v>-5.703339340373017</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.001347942150152542</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.006644361032943242</v>
+        <v>0.0903579118054901</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0006282647407115903</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.789959233472441</v>
+        <v>-0.01161130635552249</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.01197567811248536</v>
+        <v>0.0001945627805320892</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.40689262367202</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-0.0003819887538884543</v>
+        <v>0.02445454801935397</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.09695112639579571</v>
       </c>
       <c r="C122" t="n">
-        <v>0.03621917843267965</v>
+        <v>0.002209125401900581</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.0004794949840129621</v>
+        <v>0.0006528073191852964</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0302614670311185</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.03172738745267902</v>
+        <v>-0.0001848348134918879</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.1065589258778064</v>
       </c>
       <c r="C123" t="n">
-        <v>0.001238287410623259</v>
+        <v>-0.6976905713975421</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.006443704627030605</v>
+        <v>-0.2102934662521709</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.0002591371924219815</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.01780573669687976</v>
+        <v>0.03530044171224063</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0003961346088138532</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.828982226664145</v>
+        <v>0.00761770994855708</v>
       </c>
       <c r="D124" t="n">
-        <v>1.341976439484138</v>
+        <v>0.004116551903483044</v>
       </c>
       <c r="E124" t="n">
-        <v>-10.61780609985313</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-12.96428040536978</v>
+        <v>0.001121490846724031</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.0005490171627087819</v>
       </c>
       <c r="C125" t="n">
-        <v>0.06358364406161185</v>
+        <v>0.02698560438617289</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06579550928941059</v>
+        <v>-8.22700051822341e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>0.04596562870491214</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-0.01414380298797689</v>
+        <v>-0.0004596058440074097</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.1510130986886294</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1114828340695334</v>
+        <v>-0.0007266843716042089</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.339126783219888</v>
+        <v>-0.002174170489243323</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.072866760441179</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.1338597016936937</v>
+        <v>-0.006956979360280368</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
-        <v>0.5</v>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.06996827680305628</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.2718047413535763</v>
+        <v>-6.362828982368293</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.02840000163588547</v>
+        <v>-0.2844799619144306</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.3973494953497992</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-7.56704010062746e-05</v>
+        <v>0.3845468418907801</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.03420255953271385</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0006282647407115903</v>
+        <v>-0.2007265114492725</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.01161130635552249</v>
+        <v>-4.629865075538992</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0001945627805320892</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.02445454801935397</v>
+        <v>-0.8183625890324937</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-4.753818697220931</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09695112639579571</v>
+        <v>-0.4818632136395922</v>
       </c>
       <c r="D129" t="n">
-        <v>0.002209125401900581</v>
+        <v>-9.927283138375563</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0006528073191852964</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-0.0001848348134918879</v>
+        <v>-0.106618756024796</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0007306801815351185</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1065589258778064</v>
+        <v>-0.01136207558687715</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.6976905713975421</v>
+        <v>-0.006460883449074892</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.2102934662521709</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.03530044171224063</v>
+        <v>0.003469897331432818</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.0001573917924247812</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0003961346088138532</v>
+        <v>0.004323100628634486</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00761770994855708</v>
+        <v>-7.814890172109196e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>0.004116551903483044</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.001121490846724031</v>
+        <v>-0.004094904255378656</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.0006108177804308405</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.0005490171627087819</v>
+        <v>-0.0009120153832965748</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02698560438617289</v>
+        <v>0.09963068657228238</v>
       </c>
       <c r="E132" t="n">
-        <v>-8.22700051822341e-06</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-0.0004596058440074097</v>
+        <v>0.03917974383102615</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.002034981637667157</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1510130986886294</v>
+        <v>-0.01030669704040402</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.0007266843716042089</v>
+        <v>-0.01046826245554867</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.002174170489243323</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-0.006956979360280368</v>
+        <v>0.06455579205324941</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.09405745527890413</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.06996827680305628</v>
+        <v>0.002609718285889406</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.362828982368293</v>
+        <v>0.0004971666785233251</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.2844799619144306</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.3845468418907801</v>
+        <v>0.008201658868628543</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.04414301617533535</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.03420255953271385</v>
+        <v>-0.06935854644729318</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.2007265114492725</v>
+        <v>0.01238918264885617</v>
       </c>
       <c r="E135" t="n">
-        <v>-4.629865075538992</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-0.8183625890324937</v>
+        <v>0.03108204679244328</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.1717747889254415</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.753818697220931</v>
+        <v>-0.1404400167093082</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.4818632136395922</v>
+        <v>-0.04377797290383495</v>
       </c>
       <c r="E136" t="n">
-        <v>-9.927283138375563</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-0.106618756024796</v>
+        <v>0.01020560289037309</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.005334300238589869</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0007306801815351185</v>
+        <v>-0.06061990262685819</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.01136207558687715</v>
+        <v>5.194706456963847e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.006460883449074892</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.003469897331432818</v>
+        <v>0.02854564463616621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.02165832088901944</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.0001573917924247812</v>
+        <v>-0.5796163189710022</v>
       </c>
       <c r="D138" t="n">
-        <v>0.004323100628634486</v>
+        <v>-3.610477966733841e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.814890172109196e-05</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-0.004094904255378656</v>
+        <v>0.3191267487466622</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.02249875926575188</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0006108177804308405</v>
+        <v>-0.04573575553009187</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.0009120153832965748</v>
+        <v>0.0006906159754139814</v>
       </c>
       <c r="E139" t="n">
-        <v>0.09963068657228238</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.03917974383102615</v>
+        <v>0.006223522292900028</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.01687358462478062</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.002034981637667157</v>
+        <v>-0.0001576411185796087</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01030669704040402</v>
+        <v>-0.005655426828056742</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.01046826245554867</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.06455579205324941</v>
+        <v>-0.0001696094573094497</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0277988459650626</v>
       </c>
       <c r="C141" t="n">
-        <v>0.09405745527890413</v>
+        <v>-0.1109351070858296</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002609718285889406</v>
+        <v>-0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0004971666785233251</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.008201658868628543</v>
+        <v>0.02378529468419096</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.001130765523076675</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04414301617533535</v>
+        <v>-1.646733745277164</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.06935854644729318</v>
+        <v>-0.7006788844415248</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01238918264885617</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.03108204679244328</v>
+        <v>0.0005709929220101271</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.02364925666457765</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1717747889254415</v>
+        <v>-0.02013941394739237</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1404400167093082</v>
+        <v>-0.0007726975262474303</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.04377797290383495</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.01020560289037309</v>
+        <v>0.002550633573634419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.000837467342837668</v>
       </c>
       <c r="C144" t="n">
-        <v>0.005334300238589869</v>
+        <v>-0.0008730850907050229</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.06061990262685819</v>
+        <v>-0.0305492617651778</v>
       </c>
       <c r="E144" t="n">
-        <v>5.194706456963847e-05</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.02854564463616621</v>
+        <v>0.002070087087629868</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.3623629355125023</v>
       </c>
       <c r="C145" t="n">
-        <v>0.02165832088901944</v>
+        <v>0.0005307896411844768</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.5796163189710022</v>
+        <v>0.06577722440822313</v>
       </c>
       <c r="E145" t="n">
-        <v>-3.610477966733841e-05</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.3191267487466622</v>
+        <v>-0.0001333083067286704</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.8035927166284033</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.02249875926575188</v>
+        <v>-1.19370802467974</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.04573575553009187</v>
+        <v>-0.001327867688932891</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0006906159754139814</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.006223522292900028</v>
+        <v>0.889126307924324</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.0001788628372100047</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.01687358462478062</v>
+        <v>-0.001232459231883961</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.0001576411185796087</v>
+        <v>-0.003233842066925434</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.005655426828056742</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-0.0001696094573094497</v>
+        <v>0.0003358640276155578</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>5.950518242189806e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0277988459650626</v>
+        <v>0.2381039002952217</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1109351070858296</v>
+        <v>-0.005214789829800773</v>
       </c>
       <c r="E148" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.02378529468419096</v>
+        <v>-0.1186272614623693</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.945302413779718</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.001130765523076675</v>
+        <v>0.3299003180611544</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.646733745277164</v>
+        <v>-5.395628349497199e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.7006788844415248</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.0005709929220101271</v>
+        <v>-0.08450585040802037</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.02364925666457765</v>
+        <v>-0.01376357129670944</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.02013941394739237</v>
+        <v>-0.1737066723935813</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.0007726975262474303</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.002550633573634419</v>
+        <v>-1.199704105060244e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.001677789320018112</v>
+        <v>-0.3884886864119747</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.006569103884173946</v>
+        <v>-0.09397994925800687</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.08223536485777858</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.001441259903371265</v>
+        <v>0.05253371638309601</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
-        <v>0.5</v>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.03978139746655147</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.001392569706990527</v>
+        <v>-0.008248584887606882</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.06205712236984588</v>
+        <v>-0.002169333266640971</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0002742952478759504</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.01165516962422834</v>
+        <v>0.0001090233493465274</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.3623629355125023</v>
+        <v>-0.6584198789656873</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0005307896411844768</v>
+        <v>-0.09868923130298166</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06577722440822313</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-0.0001333083067286704</v>
+        <v>0.1001891117665303</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>0.5</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.004778345120922561</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.0002974994742247698</v>
+        <v>-0.005612330046239511</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.3969831952054941</v>
+        <v>-0.08703939738273984</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.0002247356379651425</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.07257198919523872</v>
+        <v>-0.001598360169172919</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.1618466197700953</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.214187338854125</v>
+        <v>-0.0004013890874064987</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.130624542660001</v>
+        <v>0.03882193690608408</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.00275404309424983</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1.012289787741676</v>
+        <v>0.003349921521886411</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.001732653005218822</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.0001788628372100047</v>
+        <v>-0.01275827464998503</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.001232459231883961</v>
+        <v>-0.003565243695131739</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.003233842066925434</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.0003358640276155578</v>
+        <v>0.02837746917599405</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.001252548562868968</v>
       </c>
       <c r="C157" t="n">
-        <v>5.950518242189806e-05</v>
+        <v>0.08313545375508533</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2381039002952217</v>
+        <v>-0</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.005214789829800773</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-0.1186272614623693</v>
+        <v>-0.0003568179782219118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0005252461820551456</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.945302413779718</v>
+        <v>0.008627256642950946</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3299003180611544</v>
+        <v>0.0002583189284729369</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.395628349497199e-05</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-0.08450585040802037</v>
+        <v>-0.05655017164558794</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-5.729050982557854e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.3758961086786251</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.01376357129670944</v>
+        <v>0.05512351957030379</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.1737066723935813</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-1.199704105060244e-05</v>
+        <v>-0.04350039223793643</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0001196004722933782</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.01879127161658384</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3884886864119747</v>
+        <v>-0.2507519105076638</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.09397994925800687</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.05253371638309601</v>
+        <v>-0.02203377294491692</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.007457667810553805</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.03978139746655147</v>
+        <v>0.02253286527649933</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.008248584887606882</v>
+        <v>-0.078571196678905</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.002169333266640971</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.0001090233493465274</v>
+        <v>0.005534689932597823</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.006774323837159152</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.005327152320401439</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.6584198789656873</v>
+        <v>4.381658050366327e-07</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.09868923130298166</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.1001891117665303</v>
+        <v>5.261352941722639e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.01859384196113944</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.004778345120922561</v>
+        <v>0.00800599541608819</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.005612330046239511</v>
+        <v>-0.03061221149554328</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.08703939738273984</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-0.001598360169172919</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.1618466197700953</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-0.0004013890874064987</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.03882193690608408</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.003349921521886411</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.001732653005218822</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-0.01275827464998503</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-0.003565243695131739</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.02837746917599405</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.001252548562868968</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.08313545375508533</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-0.0003568179782219118</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.0005252461820551456</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.008627256642950946</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0002583189284729369</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-0.05655017164558794</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-5.729050982557854e-05</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.3758961086786251</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.05512351957030379</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-0.04350039223793643</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.0001196004722933782</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.01879127161658384</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-0.2507519105076638</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-0.02203377294491692</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.007457667810553805</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.02253286527649933</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-0.078571196678905</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.005534689932597823</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.006774323837159152</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.005327152320401439</v>
-      </c>
-      <c r="E171" t="n">
-        <v>4.381658050366327e-07</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5.261352941722639e-05</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.01859384196113944</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.00800599541608819</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-0.03061221149554328</v>
-      </c>
-      <c r="F172" t="n">
         <v>-0.02323078442630657</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-08-08_Behavior_Assay_effectscore.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_effectscore.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +455,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moving [s]|Accomodation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -461,16 +482,19 @@
           <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.004690474588100176</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.0665337401844817</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.0004155358782686025</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.003682047175680078</v>
       </c>
     </row>
@@ -480,16 +504,19 @@
           <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>-0.002599246427417095</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.6190381902030483</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.00266230547139222</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.4590999043445722</v>
       </c>
     </row>
@@ -499,16 +526,19 @@
           <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.6485603091377177</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.05224382064174461</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02702721519858158</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.0004622769820401413</v>
       </c>
     </row>
@@ -518,16 +548,19 @@
           <t>ABT 239_1F10</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>-0.09534350947196457</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.5713008096078158</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.4514850791634177</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08841117647485228</v>
       </c>
     </row>
@@ -537,16 +570,19 @@
           <t>AZ3451_2E06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.0007180084739652682</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.4006256194777991</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-2.600012317673734e-05</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.09360179129839326</v>
       </c>
     </row>
@@ -556,16 +592,19 @@
           <t>Abacavir_2H07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>-0.02511507357072094</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.0005336269673092568</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.02119723302170318</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.000269749120999223</v>
       </c>
     </row>
@@ -575,16 +614,19 @@
           <t>Abemaciclib_1G11</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>-0.0002146501423613786</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-1.12828636411443e-05</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.01649562233256314</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.000869462344395647</v>
       </c>
     </row>
@@ -594,16 +636,19 @@
           <t>Almitrine_1G04</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>-6.407539237409666</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-5.063033103685329</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-2.394571283418013</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.552565111538546</v>
       </c>
     </row>
@@ -613,16 +658,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>-0.04014257325652738</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-1.016151448232665</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.1589347739926616</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.474643448688756</v>
       </c>
     </row>
@@ -632,16 +680,19 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>-0.04937158356428422</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.0001805779842397879</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.01882170188564664</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.009148284860716852</v>
       </c>
     </row>
@@ -651,16 +702,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.283943330306465</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-0.5211127094232282</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-4.116482021383292e-05</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2050966608030914</v>
       </c>
     </row>
@@ -670,16 +724,19 @@
           <t>Anagliptin_2E10</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.8281206250655634</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.1453375207886302</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.2309446956059623</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.01050577603842847</v>
       </c>
     </row>
@@ -689,16 +746,19 @@
           <t>Anidulafungin_2B03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>-2.797356422549698</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.1972649370548122</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.4602317433762005</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1006627846735373</v>
       </c>
     </row>
@@ -708,16 +768,19 @@
           <t>Apilimod_1B03</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.1116889426127083</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-1.060644024170077</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.2929268487434603</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.261180983309327</v>
       </c>
     </row>
@@ -727,16 +790,19 @@
           <t>Apixaban_2H09</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.4800163938868077</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.001332466787325624</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.01182424341402746</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.004082425311744102</v>
       </c>
     </row>
@@ -746,16 +812,19 @@
           <t>Apremilast_2F05</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.05440139619029755</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-0.006947301378922879</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.01312367602666625</v>
       </c>
     </row>
@@ -765,16 +834,19 @@
           <t>Aprepitant_2F03</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.01850116034700639</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.1406470335334792</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-9.911326369420947e-06</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.06881939009378539</v>
       </c>
     </row>
@@ -784,2756 +856,3381 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-5.085047770265757</v>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0417605096441586</v>
+        <v>-5.395729997446673</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.667885259076881</v>
+        <v>-0.004539773955949687</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.95110414797919</v>
+        <v>-11.86962335185485</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-14.43321147007991</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0002169938032884099</v>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03762437829257603</v>
+        <v>0.0008028230813932667</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0009956206800413091</v>
+        <v>-1.600888185772532</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2435100095333183</v>
+        <v>-0.4875161429249484</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.005227740985635727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1004243431346463</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.002452091190011538</v>
+        <v>0.0002169938032884099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001022816652139999</v>
+        <v>-0.03762437829257603</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001456123398928233</v>
+        <v>-0.0009956206800413091</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2435100095333183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.01553847493557127</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3294190350114074</v>
+        <v>0.1004243431346463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002036015421398324</v>
+        <v>-0.002452091190011538</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7779406152025671</v>
+        <v>0.001022816652139999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001456123398928233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.2104211940268566</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00119848859858463</v>
+        <v>-0.01553847493557127</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04916676192222328</v>
+        <v>-0.3294190350114074</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.002608423159799576</v>
+        <v>0.002036015421398324</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7779406152025671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.004504277005416946</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4849951402466438</v>
+        <v>-0.2104211940268566</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1054681442255718</v>
+        <v>0.00119848859858463</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2886941250488063</v>
+        <v>-0.04916676192222328</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.002608423159799576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.000288692396317539</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002842137638994401</v>
+        <v>-0.004504277005416946</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005962373479978617</v>
+        <v>0.4849951402466438</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.795983200169935e-05</v>
+        <v>-0.1054681442255718</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2886941250488063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0006609181539484715</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07868034679751357</v>
+        <v>-0.000288692396317539</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.05623235758511815</v>
+        <v>0.002842137638994401</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01229477513539569</v>
+        <v>-0.005962373479978617</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.795983200169935e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.0003014862348338625</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.313727675884061</v>
+        <v>0.0006609181539484715</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1648420449405612</v>
+        <v>0.07868034679751357</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1975419259568317</v>
+        <v>-0.05623235758511815</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.01229477513539569</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-6.643090122600307</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.099799891329433</v>
+        <v>-0.0003014862348338625</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.72937729586226</v>
+        <v>-0.313727675884061</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0260703493442025</v>
+        <v>-0.1648420449405612</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1975419259568317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5474608825483895</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9368247638742752</v>
+        <v>-6.643090122600307</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001979395414481537</v>
+        <v>-3.099799891329433</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6950442806245442</v>
+        <v>-8.72937729586226</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0260703493442025</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.1175190067870064</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0690673999289742</v>
+        <v>0.5474608825483895</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.000286273244412868</v>
+        <v>-0.9368247638742752</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07171180878319899</v>
+        <v>0.001979395414481537</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6950442806245442</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.003225924738798775</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3.302863253790162</v>
+        <v>0.1175190067870064</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03725316047619857</v>
+        <v>-0.0690673999289742</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.07426001300916565</v>
+        <v>-0.000286273244412868</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.07171180878319899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>9.76588448197597e-05</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1615091763021784</v>
+        <v>-0.003225924738798775</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.006299534315590136</v>
+        <v>3.302863253790162</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004128938250045606</v>
+        <v>-0.03725316047619857</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.07426001300916565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0009467246545573054</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002983586164121648</v>
+        <v>9.76588448197597e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>2.53037439762164e-05</v>
+        <v>-0.1615091763021784</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0004924339690743095</v>
+        <v>-0.006299534315590136</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.004128938250045606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.2588660295310281</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01287274757043416</v>
+        <v>0.0009467246545573054</v>
       </c>
       <c r="D34" t="n">
-        <v>1.107710929101181e-05</v>
+        <v>0.002983586164121648</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.776657540626113e-05</v>
+        <v>2.53037439762164e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.0004924339690743095</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1095408084723742</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2356485946685662</v>
+        <v>-0.2588660295310281</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06463219568646514</v>
+        <v>0.01287274757043416</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1308459687273837</v>
+        <v>1.107710929101181e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-1.776657540626113e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.003392357482613023</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.003012026380928071</v>
+        <v>0.1095408084723742</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.005832827384627944</v>
+        <v>-0.2356485946685662</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0007765395869362813</v>
+        <v>0.06463219568646514</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1308459687273837</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.03972932235547869</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.731385499662692</v>
+        <v>-0.003392357482613023</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3335689646629157</v>
+        <v>-0.003012026380928071</v>
       </c>
       <c r="E37" t="n">
-        <v>1.456159111636248</v>
+        <v>-0.005832827384627944</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0007765395869362813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.5708974578476592</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1472149349791687</v>
+        <v>-0.03972932235547869</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.04437666256911585</v>
+        <v>-2.731385499662692</v>
       </c>
       <c r="E38" t="n">
-        <v>0.007828749772813918</v>
+        <v>-0.3335689646629157</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.456159111636248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.5708974578476592</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0.1472149349791687</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.04437666256911585</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.007828749772813918</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.2133483899922282</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.094324938585395e-05</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0008077929251964327</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003272948364564662</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.004655848957907655</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06586330962430893</v>
+        <v>-0.2133483899922282</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0002818262577423354</v>
+        <v>-3.094324938585395e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0.009186717534541299</v>
+        <v>-0.0008077929251964327</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0003272948364564662</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.6720353226680181</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1019254942604043</v>
+        <v>-0.004655848957907655</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001622185123166451</v>
+        <v>-0.06586330962430893</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.06341485156265322</v>
+        <v>-0.0002818262577423354</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.009186717534541299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.001533687487795144</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.702540941139822e-05</v>
+        <v>-0.6720353226680181</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005793114010395947</v>
+        <v>0.1019254942604043</v>
       </c>
       <c r="E43" t="n">
-        <v>0.066087284666196</v>
+        <v>-0.001622185123166451</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.06341485156265322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.0001738520500210863</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0304138860838197</v>
+        <v>0.001533687487795144</v>
       </c>
       <c r="D44" t="n">
-        <v>-0</v>
+        <v>-6.702540941139822e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.01205860657977118</v>
+        <v>0.005793114010395947</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.066087284666196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-4.306924790676354</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0001009536692379807</v>
+        <v>0.0001738520500210863</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.08576829058843213</v>
+        <v>0.0304138860838197</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.099247421021391e-05</v>
+        <v>-0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.01205860657977118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.07486633965419305</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.001446189542876974</v>
+        <v>-4.306924790676354</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.000213619668374308</v>
+        <v>0.0001009536692379807</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003545603751918818</v>
+        <v>-0.08576829058843213</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2.099247421021391e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.00123687837240682</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1259345769407388</v>
+        <v>0.07486633965419305</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03967420348080247</v>
+        <v>-0.001446189542876974</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04134820340812681</v>
+        <v>-0.000213619668374308</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.003545603751918818</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9145467838452591</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09439739935818775</v>
+        <v>0.00123687837240682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4130957852066454</v>
+        <v>-0.1259345769407388</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0003975745555134343</v>
+        <v>-0.03967420348080247</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.04134820340812681</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.1987567104419339</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-9.392396225008533e-05</v>
+        <v>0.9145467838452591</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1020343639573307</v>
+        <v>0.09439739935818775</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.001653586900890442</v>
+        <v>0.4130957852066454</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.0003975745555134343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.04023591530604558</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001104423394412611</v>
+        <v>-0.1987567104419339</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03992546137545055</v>
+        <v>-9.392396225008533e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.001067529983518004</v>
+        <v>-0.1020343639573307</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.001653586900890442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-1.6138203543464</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.66471004381334</v>
+        <v>0.04023591530604558</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.176203160099548</v>
+        <v>0.001104423394412611</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01689492619091855</v>
+        <v>0.03992546137545055</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.001067529983518004</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.002101859474760951</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.448408609678307e-05</v>
+        <v>-1.6138203543464</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.118423623578333e-05</v>
+        <v>-1.66471004381334</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0004762193536768664</v>
+        <v>-2.176203160099548</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01689492619091855</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.08969678505618932</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01533346537676585</v>
+        <v>-0.002101859474760951</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0001432204359528107</v>
+        <v>-1.448408609678307e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>3.461422942310812e-05</v>
+        <v>-2.118423623578333e-05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.0004762193536768664</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.05593304954837457</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0001553767372320528</v>
+        <v>-0.08969678505618932</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02473478908118978</v>
+        <v>-0.01533346537676585</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.000103942961195314</v>
+        <v>-0.0001432204359528107</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.461422942310812e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.0002997178704134292</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1622576087684149</v>
+        <v>0.05593304954837457</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.65692385481005e-05</v>
+        <v>0.0001553767372320528</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02482546680049212</v>
+        <v>0.02473478908118978</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.000103942961195314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.0003507397918577518</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003812468773502913</v>
+        <v>-0.0002997178704134292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004028602865823031</v>
+        <v>-0.1622576087684149</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006229528015982308</v>
+        <v>-1.65692385481005e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.02482546680049212</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.2633506932446292</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01364729648828801</v>
+        <v>0.0003507397918577518</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04727858033865017</v>
+        <v>0.003812468773502913</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0001237858314496748</v>
+        <v>0.004028602865823031</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.006229528015982308</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>6.260943905255207e-05</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.07192389940364133</v>
+        <v>0.2633506932446292</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0005662072006710359</v>
+        <v>-0.01364729648828801</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02615450509915462</v>
+        <v>0.04727858033865017</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0001237858314496748</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1.404245593181194</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01741662374577331</v>
+        <v>6.260943905255207e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02939336499358534</v>
+        <v>-0.07192389940364133</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5317333602336606</v>
+        <v>-0.0005662072006710359</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.02615450509915462</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.09864436847769618</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.002574091801361031</v>
+        <v>1.404245593181194</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0006923887968262834</v>
+        <v>-0.01741662374577331</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003517553986121933</v>
+        <v>0.02939336499358534</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5317333602336606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.006822846824176639</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.005307432433795643</v>
+        <v>-0.09864436847769618</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01931163054979127</v>
+        <v>-0.002574091801361031</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003137047795441405</v>
+        <v>-0.0006923887968262834</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.003517553986121933</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.005838571131324086</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>8.753674092450531e-05</v>
+        <v>0.006822846824176639</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3280592932240801</v>
+        <v>-0.005307432433795643</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003711991934590526</v>
+        <v>0.01931163054979127</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.003137047795441405</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.003019624349157478</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.002346926393126881</v>
+        <v>-0.005838571131324086</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.00770158811236723</v>
+        <v>8.753674092450531e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0009181871880653225</v>
+        <v>0.3280592932240801</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.003711991934590526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.0002408125617294566</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005671164695399271</v>
+        <v>-0.003019624349157478</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0002212492639074487</v>
+        <v>-0.002346926393126881</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.001483143290363769</v>
+        <v>-0.00770158811236723</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.0009181871880653225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.6241169359289003</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.00033664822866881</v>
+        <v>0.0002408125617294566</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2805703824298737</v>
+        <v>0.005671164695399271</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.0002961996362168371</v>
+        <v>0.0002212492639074487</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.001483143290363769</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0005579419292010764</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1764014425804067</v>
+        <v>-0.6241169359289003</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2113277934264866</v>
+        <v>-0.00033664822866881</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.0003471042682345491</v>
+        <v>-0.2805703824298737</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.0002961996362168371</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.02254020568074159</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1656163300755879</v>
+        <v>0.0005579419292010764</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.001105163350515545</v>
+        <v>0.1764014425804067</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.002538043885924263</v>
+        <v>0.2113277934264866</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.0003471042682345491</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1951788576091388</v>
+        <v>0.02254020568074159</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.554352614906782e-05</v>
+        <v>0.1656163300755879</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2558465546544006</v>
+        <v>-0.001105163350515545</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.002538043885924263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.0002930829008576284</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.09648738704824092</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01415061154358854</v>
+        <v>-0.1951788576091388</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02129374973917159</v>
+        <v>-6.554352614906782e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2558465546544006</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.02316207624637632</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.487366192644288</v>
+        <v>0.0002930829008576284</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.7529108808404787</v>
+        <v>-0.09648738704824092</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01482640736340329</v>
+        <v>-0.01415061154358854</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.02129374973917159</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.00563068779553065</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1224315167928106</v>
+        <v>-0.02316207624637632</v>
       </c>
       <c r="D71" t="n">
-        <v>3.192221348382088e-05</v>
+        <v>-0.487366192644288</v>
       </c>
       <c r="E71" t="n">
-        <v>0.131294524680511</v>
+        <v>-0.7529108808404787</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01482640736340329</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.6272049458508527</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2245138651866104</v>
+        <v>-0.00563068779553065</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01232909821292847</v>
+        <v>-0.1224315167928106</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5768075708973579</v>
+        <v>3.192221348382088e-05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.131294524680511</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0005276781118368457</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0015493599418482</v>
+        <v>-0.6272049458508527</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01444942784036641</v>
+        <v>-0.2245138651866104</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001842242431799986</v>
+        <v>0.01232909821292847</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5768075708973579</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.01325850052398663</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.01916233588877735</v>
+        <v>0.0005276781118368457</v>
       </c>
       <c r="D74" t="n">
-        <v>0.008154310468167796</v>
+        <v>0.0015493599418482</v>
       </c>
       <c r="E74" t="n">
-        <v>0.05559209908398018</v>
+        <v>-0.01444942784036641</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.001842242431799986</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.006936877575257088</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.003278592903986282</v>
+        <v>0.01325850052398663</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0009427593791453945</v>
+        <v>-0.01916233588877735</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000913017585495815</v>
+        <v>0.008154310468167796</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.05559209908398018</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.0003403964287798932</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.002889527194943625</v>
+        <v>0.006936877575257088</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0003725513626008627</v>
+        <v>-0.003278592903986282</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02222787055230488</v>
+        <v>-0.0009427593791453945</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.000913017585495815</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02475946706225054</v>
+        <v>-0.0003403964287798932</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0006014298225411637</v>
+        <v>-0.002889527194943625</v>
       </c>
       <c r="E77" t="n">
-        <v>9.67399262721117e-05</v>
+        <v>0.0003725513626008627</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.02222787055230488</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.1086936162691683</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1304902347541527</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08151900697613525</v>
+        <v>-0.02475946706225054</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.01160940052489737</v>
+        <v>0.0006014298225411637</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9.67399262721117e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.0002477472289921969</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.5988454974569025</v>
+        <v>0.1086936162691683</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.05622455621395158</v>
+        <v>0.1304902347541527</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03860839677460891</v>
+        <v>0.08151900697613525</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.01160940052489737</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.1514513918049827</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>4.729369701603655</v>
+        <v>0.0002477472289921969</v>
       </c>
       <c r="D80" t="n">
-        <v>-12.85802756539493</v>
+        <v>-0.5988454974569025</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.35768993427878</v>
+        <v>-0.05622455621395158</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.03860839677460891</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.4898968254128392</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1490243393811858</v>
+        <v>-9.791342321229404</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.005709785898973872</v>
+        <v>3.008911913009149</v>
       </c>
       <c r="E81" t="n">
-        <v>0.06492614003882489</v>
+        <v>-9.186952028671</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-9.859317625914054</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.1222160816201469</v>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.004058815456717825</v>
+        <v>-0.01143480310586771</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>6.112128775444641</v>
       </c>
       <c r="E82" t="n">
-        <v>0.009802160003648655</v>
+        <v>-8.54695080454737</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-10.46056581050162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2254141902612783</v>
+        <v>-0.4898968254128392</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.001403010796102699</v>
+        <v>-0.1490243393811858</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05787873775601071</v>
+        <v>-0.005709785898973872</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.06492614003882489</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.1222160816201469</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.004058815456717825</v>
+      </c>
+      <c r="E84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" t="n">
-        <v>-0.04813421091302709</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.0128576017702022</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0001747491622307134</v>
+      <c r="F84" t="n">
+        <v>0.009802160003648655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.01141059392636017</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.001519176796871325</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1.149182239112618e-05</v>
+        <v>-0.2254141902612783</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0004514244023243657</v>
+        <v>-0.001403010796102699</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.05787873775601071</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.002477835694921832</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.00290916041313197</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01534125195069216</v>
+        <v>-0.04813421091302709</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01010971378496753</v>
+        <v>-0.0128576017702022</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0001747491622307134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.0005880278082216349</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.000317018784384286</v>
+        <v>0.01141059392636017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004223274600719251</v>
+        <v>-0.001519176796871325</v>
       </c>
       <c r="E87" t="n">
-        <v>0.002293419636853675</v>
+        <v>1.149182239112618e-05</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0004514244023243657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>-1.76677188879223</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002132211189592139</v>
+        <v>-0.002477835694921832</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0005638802231639344</v>
+        <v>-0.00290916041313197</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0007630784899981008</v>
+        <v>-0.01534125195069216</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01010971378496753</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.3498148597497516</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0006701599167343122</v>
+        <v>0.0005880278082216349</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00112451553602077</v>
+        <v>-0.000317018784384286</v>
       </c>
       <c r="E89" t="n">
-        <v>0.009729142694255465</v>
+        <v>0.004223274600719251</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.002293419636853675</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.06083466182897755</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.864270827034029</v>
+        <v>-1.76677188879223</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2262144469194743</v>
+        <v>0.0002132211189592139</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01738940172166519</v>
+        <v>-0.0005638802231639344</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0007630784899981008</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.09743322821670763</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.004911502974861979</v>
+        <v>-0.3498148597497516</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.002747077881436765</v>
+        <v>0.0006701599167343122</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0001585039695413884</v>
+        <v>0.00112451553602077</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.009729142694255465</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>-1.711805023019596</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.2361957612493742</v>
+        <v>-0.06083466182897755</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.315967876769515</v>
+        <v>-0.864270827034029</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.03745163578140025</v>
+        <v>-0.2262144469194743</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01738940172166519</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.01145704766464467</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1.340253169551436e-06</v>
+        <v>-0.09743322821670763</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01351810214270498</v>
+        <v>0.004911502974861979</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0002397013624389116</v>
+        <v>-0.002747077881436765</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0001585039695413884</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.01159167650884081</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6713888713640414</v>
+        <v>-1.971494530104862</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.005820253588831192</v>
+        <v>-0.2434570066745073</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.3544620797714999</v>
+        <v>-1.728990906943951</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.02270616282918138</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.2321290114251594</v>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C95" t="n">
-        <v>2.167177359298358</v>
+        <v>0.001216500698580156</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0671799368546513</v>
+        <v>-0.1357298977219279</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.1929402777373945</v>
+        <v>3.702497405580712e-05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.002441499753338868</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1.152245492698812</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1727413332524702</v>
+        <v>-0.01145704766464467</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06041282205415079</v>
+        <v>1.340253169551436e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.03649415832621716</v>
+        <v>-0.01351810214270498</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0002397013624389116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.0009999355638302793</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001024594444776835</v>
+        <v>0.01159167650884081</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.000292465203057513</v>
+        <v>0.6713888713640414</v>
       </c>
       <c r="E97" t="n">
-        <v>1.25574863126939e-05</v>
+        <v>-0.005820253588831192</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.3544620797714999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-2.606665723171585</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0006703796380815097</v>
+        <v>0.2936764828228583</v>
       </c>
       <c r="D98" t="n">
-        <v>9.610359109286196e-05</v>
+        <v>1.841687865352923</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0003987559884881687</v>
+        <v>0.07534696755140267</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1472505623831126</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1.240207487906812e-05</v>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02862848431597277</v>
+        <v>-4.772174965127803</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1685428504159471</v>
+        <v>-1.247693922041466</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02207921136235484</v>
+        <v>7.293789433001019e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1264897046103603</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.3939727428033801</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.003125640222279725</v>
+        <v>1.152245492698812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2492408740694313</v>
+        <v>0.1727413332524702</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02121046751987704</v>
+        <v>0.06041282205415079</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.03649415832621716</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.2037004747855451</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.001756471474321983</v>
+        <v>0.0004956170509360948</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.01287601981224691</v>
+        <v>0.001080288316611697</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0001336551655988532</v>
+        <v>8.687327663802715e-05</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.001411908476056672</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.3440685624752854</v>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4189257434616734</v>
+        <v>0.0009999355638302793</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2746925909694602</v>
+        <v>0.0001024594444776835</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.01679291305251626</v>
+        <v>-0.000292465203057513</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.25574863126939e-05</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.006300241306155622</v>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01068857977895049</v>
+        <v>0.01964077885366337</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01585882573269255</v>
+        <v>-0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.008061464981234535</v>
+        <v>0.0001554302918819818</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0008744656168687314</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.01401069593333528</v>
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.517038399661768</v>
+        <v>0.0005880307847183042</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.09722440811084651</v>
+        <v>0.0003289405503729025</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9644643035731826</v>
+        <v>0.006273149206566781</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.429254456778827e-05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.003499454773355395</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00185486583679871</v>
+        <v>-2.606665723171585</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0004198657190117198</v>
+        <v>-0.0006703796380815097</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.005448484665908569</v>
+        <v>9.610359109286196e-05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0003987559884881687</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.8707559879775467</v>
+        <v>1.240207487906812e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.09310474619972595</v>
+        <v>0.02862848431597277</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3315669022842259</v>
+        <v>0.1685428504159471</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.02207921136235484</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.002019440711069333</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.004283978411306481</v>
+        <v>0.3939727428033801</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0004178470545987395</v>
+        <v>-0.003125640222279725</v>
       </c>
       <c r="E107" t="n">
-        <v>0.003773151571436478</v>
+        <v>0.2492408740694313</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.02121046751987704</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.0003041919024297576</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.268558847280619</v>
+        <v>-0.2037004747855451</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05959609028441062</v>
+        <v>-0.001756471474321983</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3305190308026016</v>
+        <v>-0.01287601981224691</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0001336551655988532</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.2710732594977948</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.01093531469355895</v>
+        <v>0.3440685624752854</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.001138912472358006</v>
+        <v>0.4189257434616734</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01893848439849354</v>
+        <v>0.2746925909694602</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.01679291305251626</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>-1.149158377792697</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.195257853419581</v>
+        <v>0.006300241306155622</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1298405688563238</v>
+        <v>0.01068857977895049</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4327321852682673</v>
+        <v>0.01585882573269255</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.008061464981234535</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.0007762187479850588</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.006267894934412227</v>
+        <v>-0.01401069593333528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.008997834235238819</v>
+        <v>-1.517038399661768</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.0005551588359881488</v>
+        <v>-0.09722440811084651</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9644643035731826</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.3926585921024177</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.198696181313287</v>
+        <v>-0.003499454773355395</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.03250563739565872</v>
+        <v>0.00185486583679871</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0007516263621657999</v>
+        <v>0.0004198657190117198</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.005448484665908569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.143318154782257</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.06709924054194853</v>
+        <v>-0</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.024664778360306</v>
+        <v>-0.8707559879775467</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01482566667308104</v>
+        <v>-0.09310474619972595</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.3315669022842259</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04442657039209553</v>
+        <v>-0.002019440711069333</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.001347942150152542</v>
+        <v>-0.004283978411306481</v>
       </c>
       <c r="E114" t="n">
-        <v>0.006644361032943242</v>
+        <v>-0.0004178470545987395</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.003773151571436478</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.789959233472441</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01197567811248536</v>
+        <v>-0.0003041919024297576</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.40689262367202</v>
+        <v>-0.268558847280619</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.0003819887538884543</v>
+        <v>0.05959609028441062</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.3305190308026016</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.03621917843267965</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.0004794949840129621</v>
+        <v>0.2710732594977948</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0302614670311185</v>
+        <v>-0.01093531469355895</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03172738745267902</v>
+        <v>-0.001138912472358006</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01893848439849354</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.001238287410623259</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.006443704627030605</v>
+        <v>-1.149158377792697</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.0002591371924219815</v>
+        <v>-2.195257853419581</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01780573669687976</v>
+        <v>-0.1298405688563238</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.4327321852682673</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-4.828982226664145</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1.341976439484138</v>
+        <v>0.0007762187479850588</v>
       </c>
       <c r="D118" t="n">
-        <v>-10.61780609985313</v>
+        <v>0.006267894934412227</v>
       </c>
       <c r="E118" t="n">
-        <v>-12.96428040536978</v>
+        <v>0.008997834235238819</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.0005551588359881488</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.06358364406161185</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06579550928941059</v>
+        <v>-0.3926585921024177</v>
       </c>
       <c r="D119" t="n">
-        <v>0.04596562870491214</v>
+        <v>-0.198696181313287</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.01414380298797689</v>
+        <v>-0.03250563739565872</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0007516263621657999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.08884671641140336</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.282778475149612</v>
+        <v>-0.143318154782257</v>
       </c>
       <c r="D120" t="n">
-        <v>-5.703339340373017</v>
+        <v>-0.06709924054194853</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0903579118054901</v>
+        <v>-0.024664778360306</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.01482566667308104</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0006282647407115903</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.01161130635552249</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0001945627805320892</v>
+        <v>-0.04442657039209553</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02445454801935397</v>
+        <v>-0.001347942150152542</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.006644361032943242</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.09695112639579571</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.002209125401900581</v>
+        <v>-0.789959233472441</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0006528073191852964</v>
+        <v>-0.01197567811248536</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.0001848348134918879</v>
+        <v>-2.40689262367202</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.0003819887538884543</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-0.1065589258778064</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.6976905713975421</v>
+        <v>0.03621917843267965</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2102934662521709</v>
+        <v>-0.0004794949840129621</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03530044171224063</v>
+        <v>0.0302614670311185</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.03172738745267902</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0003961346088138532</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00761770994855708</v>
+        <v>0.001238287410623259</v>
       </c>
       <c r="D124" t="n">
-        <v>0.004116551903483044</v>
+        <v>-0.006443704627030605</v>
       </c>
       <c r="E124" t="n">
-        <v>0.001121490846724031</v>
+        <v>-0.0002591371924219815</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.01780573669687976</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.0005490171627087819</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02698560438617289</v>
+        <v>-4.828982226664145</v>
       </c>
       <c r="D125" t="n">
-        <v>-8.22700051822341e-06</v>
+        <v>1.341976439484138</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.0004596058440074097</v>
+        <v>-10.61780609985313</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-12.96428040536978</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.1510130986886294</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.0007266843716042089</v>
+        <v>0.06358364406161185</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.002174170489243323</v>
+        <v>0.06579550928941059</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.006956979360280368</v>
+        <v>0.04596562870491214</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.01414380298797689</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.06996827680305628</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.362828982368293</v>
+        <v>-0.1114828340695334</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.2844799619144306</v>
+        <v>-1.339126783219888</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3845468418907801</v>
+        <v>-7.072866760441179</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1338597016936937</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.03420255953271385</v>
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2007265114492725</v>
+        <v>-0.2718047413535763</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.629865075538992</v>
+        <v>-0.02840000163588547</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.8183625890324937</v>
+        <v>-0.3973494953497992</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-7.56704010062746e-05</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-4.753818697220931</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.4818632136395922</v>
+        <v>0.0006282647407115903</v>
       </c>
       <c r="D129" t="n">
-        <v>-9.927283138375563</v>
+        <v>-0.01161130635552249</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.106618756024796</v>
+        <v>0.0001945627805320892</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.02445454801935397</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0007306801815351185</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.01136207558687715</v>
+        <v>0.09695112639579571</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.006460883449074892</v>
+        <v>0.002209125401900581</v>
       </c>
       <c r="E130" t="n">
-        <v>0.003469897331432818</v>
+        <v>0.0006528073191852964</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.0001848348134918879</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.0001573917924247812</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004323100628634486</v>
+        <v>-0.1065589258778064</v>
       </c>
       <c r="D131" t="n">
-        <v>-7.814890172109196e-05</v>
+        <v>-0.6976905713975421</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.004094904255378656</v>
+        <v>-0.2102934662521709</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.03530044171224063</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.0006108177804308405</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.0009120153832965748</v>
+        <v>0.0003961346088138532</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09963068657228238</v>
+        <v>0.00761770994855708</v>
       </c>
       <c r="E132" t="n">
-        <v>0.03917974383102615</v>
+        <v>0.004116551903483044</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.001121490846724031</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.002034981637667157</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.01030669704040402</v>
+        <v>-0.0005490171627087819</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.01046826245554867</v>
+        <v>0.02698560438617289</v>
       </c>
       <c r="E133" t="n">
-        <v>0.06455579205324941</v>
+        <v>-8.22700051822341e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.0004596058440074097</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.09405745527890413</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.002609718285889406</v>
+        <v>-0.1510130986886294</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0004971666785233251</v>
+        <v>-0.0007266843716042089</v>
       </c>
       <c r="E134" t="n">
-        <v>0.008201658868628543</v>
+        <v>-0.002174170489243323</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.006956979360280368</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.04414301617533535</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.06935854644729318</v>
+        <v>-0.06996827680305628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01238918264885617</v>
+        <v>-6.362828982368293</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03108204679244328</v>
+        <v>-0.2844799619144306</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.3845468418907801</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.1717747889254415</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1404400167093082</v>
+        <v>-0.03420255953271385</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.04377797290383495</v>
+        <v>-0.2007265114492725</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01020560289037309</v>
+        <v>-4.629865075538992</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.8183625890324937</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.005334300238589869</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.06061990262685819</v>
+        <v>-4.753818697220931</v>
       </c>
       <c r="D137" t="n">
-        <v>5.194706456963847e-05</v>
+        <v>-0.4818632136395922</v>
       </c>
       <c r="E137" t="n">
-        <v>0.02854564463616621</v>
+        <v>-9.927283138375563</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.106618756024796</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.02165832088901944</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.5796163189710022</v>
+        <v>0.0007306801815351185</v>
       </c>
       <c r="D138" t="n">
-        <v>-3.610477966733841e-05</v>
+        <v>-0.01136207558687715</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3191267487466622</v>
+        <v>-0.006460883449074892</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.003469897331432818</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.02249875926575188</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.04573575553009187</v>
+        <v>-0.0001573917924247812</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0006906159754139814</v>
+        <v>0.004323100628634486</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006223522292900028</v>
+        <v>-7.814890172109196e-05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.004094904255378656</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.01687358462478062</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.0001576411185796087</v>
+        <v>0.0006108177804308405</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.005655426828056742</v>
+        <v>-0.0009120153832965748</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.0001696094573094497</v>
+        <v>0.09963068657228238</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.03917974383102615</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.0277988459650626</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1109351070858296</v>
+        <v>-0.002034981637667157</v>
       </c>
       <c r="D141" t="n">
-        <v>-0</v>
+        <v>-0.01030669704040402</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02378529468419096</v>
+        <v>-0.01046826245554867</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.06455579205324941</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.001130765523076675</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.646733745277164</v>
+        <v>0.09405745527890413</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.7006788844415248</v>
+        <v>0.002609718285889406</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0005709929220101271</v>
+        <v>0.0004971666785233251</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.008201658868628543</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.02364925666457765</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.02013941394739237</v>
+        <v>0.04414301617533535</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0007726975262474303</v>
+        <v>-0.06935854644729318</v>
       </c>
       <c r="E143" t="n">
-        <v>0.002550633573634419</v>
+        <v>0.01238918264885617</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.03108204679244328</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.000837467342837668</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.0008730850907050229</v>
+        <v>-0.1717747889254415</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0305492617651778</v>
+        <v>-0.1404400167093082</v>
       </c>
       <c r="E144" t="n">
-        <v>0.002070087087629868</v>
+        <v>-0.04377797290383495</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.01020560289037309</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>-0.3623629355125023</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0005307896411844768</v>
+        <v>0.005334300238589869</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06577722440822313</v>
+        <v>-0.06061990262685819</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.0001333083067286704</v>
+        <v>5.194706456963847e-05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.02854564463616621</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>-0.8035927166284033</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.19370802467974</v>
+        <v>0.02165832088901944</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.001327867688932891</v>
+        <v>-0.5796163189710022</v>
       </c>
       <c r="E146" t="n">
-        <v>0.889126307924324</v>
+        <v>-3.610477966733841e-05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3191267487466622</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.0001788628372100047</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.001232459231883961</v>
+        <v>-0.02249875926575188</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.003233842066925434</v>
+        <v>-0.04573575553009187</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0003358640276155578</v>
+        <v>0.0006906159754139814</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.006223522292900028</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>5.950518242189806e-05</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2381039002952217</v>
+        <v>-0.01687358462478062</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.005214789829800773</v>
+        <v>-0.0001576411185796087</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.1186272614623693</v>
+        <v>-0.005655426828056742</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.0001696094573094497</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>-0.945302413779718</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3299003180611544</v>
+        <v>0.0277988459650626</v>
       </c>
       <c r="D149" t="n">
-        <v>-5.395628349497199e-05</v>
+        <v>-0.1109351070858296</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.08450585040802037</v>
+        <v>-0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.02378529468419096</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.01376357129670944</v>
+        <v>-0.001130765523076675</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1737066723935813</v>
+        <v>-1.646733745277164</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.199704105060244e-05</v>
+        <v>-0.7006788844415248</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0005709929220101271</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.3884886864119747</v>
+        <v>-0.02364925666457765</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.09397994925800687</v>
+        <v>-0.02013941394739237</v>
       </c>
       <c r="E151" t="n">
-        <v>0.05253371638309601</v>
+        <v>-0.0007726975262474303</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.002550633573634419</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.03978139746655147</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.008248584887606882</v>
+        <v>0.001677789320018112</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.002169333266640971</v>
+        <v>-0.006569103884173946</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0001090233493465274</v>
+        <v>-0.08223536485777858</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.001441259903371265</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.6584198789656873</v>
+        <v>-0.001392569706990527</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.09868923130298166</v>
+        <v>-0.06205712236984588</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1001891117665303</v>
+        <v>0.0002742952478759504</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.01165516962422834</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.004778345120922561</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.005612330046239511</v>
+        <v>-0.3623629355125023</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.08703939738273984</v>
+        <v>0.0005307896411844768</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.001598360169172919</v>
+        <v>0.06577722440822313</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.0001333083067286704</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.1618466197700953</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0004013890874064987</v>
+        <v>-0.0002974994742247698</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03882193690608408</v>
+        <v>-0.3969831952054941</v>
       </c>
       <c r="E155" t="n">
-        <v>0.003349921521886411</v>
+        <v>-0.0002247356379651425</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.07257198919523872</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.001732653005218822</v>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.01275827464998503</v>
+        <v>-1.214187338854125</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.003565243695131739</v>
+        <v>-1.130624542660001</v>
       </c>
       <c r="E156" t="n">
-        <v>0.02837746917599405</v>
+        <v>-0.00275404309424983</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.012289787741676</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.001252548562868968</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.08313545375508533</v>
+        <v>-0.0001788628372100047</v>
       </c>
       <c r="D157" t="n">
-        <v>-0</v>
+        <v>-0.001232459231883961</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.0003568179782219118</v>
+        <v>-0.003233842066925434</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0003358640276155578</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.0005252461820551456</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.008627256642950946</v>
+        <v>5.950518242189806e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0002583189284729369</v>
+        <v>0.2381039002952217</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.05655017164558794</v>
+        <v>-0.005214789829800773</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.1186272614623693</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>-5.729050982557854e-05</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3758961086786251</v>
+        <v>-0.945302413779718</v>
       </c>
       <c r="D159" t="n">
-        <v>0.05512351957030379</v>
+        <v>0.3299003180611544</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.04350039223793643</v>
+        <v>-5.395628349497199e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.08450585040802037</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.0001196004722933782</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01879127161658384</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.2507519105076638</v>
+        <v>-0.01376357129670944</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.02203377294491692</v>
+        <v>-0.1737066723935813</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-1.199704105060244e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.007457667810553805</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.02253286527649933</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.078571196678905</v>
+        <v>-0.3884886864119747</v>
       </c>
       <c r="E161" t="n">
-        <v>0.005534689932597823</v>
+        <v>-0.09397994925800687</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.05253371638309601</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.006774323837159152</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.005327152320401439</v>
+        <v>-0.03978139746655147</v>
       </c>
       <c r="D162" t="n">
-        <v>4.381658050366327e-07</v>
+        <v>-0.008248584887606882</v>
       </c>
       <c r="E162" t="n">
-        <v>5.261352941722639e-05</v>
+        <v>-0.002169333266640971</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0001090233493465274</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.6584198789656873</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.09868923130298166</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1001891117665303</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.004778345120922561</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.005612330046239511</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.08703939738273984</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.001598360169172919</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.1618466197700953</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.0004013890874064987</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.03882193690608408</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.003349921521886411</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.001732653005218822</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.01275827464998503</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.003565243695131739</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.02837746917599405</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.001252548562868968</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.08313545375508533</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.0003568179782219118</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0005252461820551456</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.008627256642950946</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0002583189284729369</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.05655017164558794</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-5.729050982557854e-05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3758961086786251</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.05512351957030379</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.04350039223793643</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0001196004722933782</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.01879127161658384</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.2507519105076638</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.02203377294491692</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.007457667810553805</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.02253286527649933</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.078571196678905</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.005534689932597823</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.006774323837159152</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.005327152320401439</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.381658050366327e-07</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5.261352941722639e-05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
           <t>ZINC4326719_2E07</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>-0.01859384196113944</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.00800599541608819</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>-0.03061221149554328</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>-0.02323078442630657</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>